--- a/New_codes/Results/results_big_instances.xlsx
+++ b/New_codes/Results/results_big_instances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/kaisar_usc_edu/Documents/CVRP/Codes/New_codes/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_9DE5D3BDE86AA64C120A303EE22A3A6EAED19A86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0562878-1793-0D4A-B20D-74E8153705C6}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_9DE5D3BDE86AA64C120A303EE22A3A6EAED19A86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F34D1BC-114E-BA4A-92EA-3DF0CBC553D6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="16280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -324,7 +324,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>8</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0.20656291581690309</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>9</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>0.96701779216527939</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>10</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>2.8855015831068158</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>11</v>
       </c>

--- a/New_codes/Results/results_big_instances.xlsx
+++ b/New_codes/Results/results_big_instances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/kaisar_usc_edu/Documents/CVRP/Codes/New_codes/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_9DE5D3BDE86AA64C120A303EE22A3A6EAED19A86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F34D1BC-114E-BA4A-92EA-3DF0CBC553D6}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="11_9DE5D3BDE86AA64C120A303EE22A3A6EAED19A86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD8B284-D20C-1F44-8247-618A13A8229E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="16280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>Nodes</t>
   </si>
@@ -201,6 +201,48 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>Always generate rows</t>
+  </si>
+  <si>
+    <t>generate rows when integer</t>
+  </si>
+  <si>
+    <t>generate rows when integer + heuristic</t>
+  </si>
+  <si>
+    <t>Total number of LPs solved</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>wdv</t>
+  </si>
+  <si>
+    <t>wev</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>rand seed</t>
+  </si>
+  <si>
+    <t>DV miles</t>
+  </si>
+  <si>
+    <t>unlimited EV</t>
   </si>
 </sst>
 </file>
@@ -210,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +286,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -259,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -297,11 +370,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -325,6 +422,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1037,25 +1167,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="106" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="2"/>
     <col min="2" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" style="2" customWidth="1"/>
     <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.83203125" style="2"/>
@@ -1550,7 +1682,1217 @@
         <v>0.77781306118621141</v>
       </c>
     </row>
+    <row r="17" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" ht="100" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>246.94694615593289</v>
+      </c>
+      <c r="C19">
+        <v>196.02583380202921</v>
+      </c>
+      <c r="D19">
+        <v>125.2194880356319</v>
+      </c>
+      <c r="E19">
+        <v>70.806345766397314</v>
+      </c>
+      <c r="F19">
+        <v>450.5</v>
+      </c>
+      <c r="G19">
+        <v>169.7285673556764</v>
+      </c>
+      <c r="H19">
+        <v>1.097308333963156</v>
+      </c>
+      <c r="I19">
+        <v>0.82908471385412064</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>13</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>4.8692501150071621E-3</v>
+      </c>
+      <c r="N19">
+        <v>2.0522094564512372E-3</v>
+      </c>
+      <c r="O19">
+        <v>1.0451672079507259</v>
+      </c>
+      <c r="P19">
+        <v>4.085991729516536E-2</v>
+      </c>
+      <c r="Q19">
+        <v>1.097308333963156</v>
+      </c>
+      <c r="R19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>362.29771688266823</v>
+      </c>
+      <c r="C20">
+        <v>298.20049184746188</v>
+      </c>
+      <c r="D20">
+        <v>169.75463441316529</v>
+      </c>
+      <c r="E20">
+        <v>128.44585743429661</v>
+      </c>
+      <c r="F20">
+        <v>716.45</v>
+      </c>
+      <c r="G20">
+        <v>213.66791062140831</v>
+      </c>
+      <c r="H20">
+        <v>2.7077309169108048</v>
+      </c>
+      <c r="I20">
+        <v>2.0751057975634382</v>
+      </c>
+      <c r="J20">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>109</v>
+      </c>
+      <c r="L20">
+        <v>184</v>
+      </c>
+      <c r="M20">
+        <v>0.2337754515465349</v>
+      </c>
+      <c r="N20">
+        <v>3.7839463213458657E-2</v>
+      </c>
+      <c r="O20">
+        <v>1.1132994169602171</v>
+      </c>
+      <c r="P20">
+        <v>1.262152550159954</v>
+      </c>
+      <c r="Q20">
+        <v>2.7077309169108048</v>
+      </c>
+      <c r="R20">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>386.2579535962459</v>
+      </c>
+      <c r="C21">
+        <v>282.62310981202512</v>
+      </c>
+      <c r="D21">
+        <v>282.62310981202512</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1161.08</v>
+      </c>
+      <c r="G21">
+        <v>345.46879910796753</v>
+      </c>
+      <c r="H21">
+        <v>99.771951667033136</v>
+      </c>
+      <c r="I21">
+        <v>4.2502866637164942</v>
+      </c>
+      <c r="J21">
+        <v>586</v>
+      </c>
+      <c r="K21">
+        <v>1663</v>
+      </c>
+      <c r="L21">
+        <v>2903</v>
+      </c>
+      <c r="M21">
+        <v>17.171002969495021</v>
+      </c>
+      <c r="N21">
+        <v>6.518260374898091</v>
+      </c>
+      <c r="O21">
+        <v>1.2883514590794221</v>
+      </c>
+      <c r="P21">
+        <v>72.354635121882893</v>
+      </c>
+      <c r="Q21">
+        <v>99.771951667033136</v>
+      </c>
+      <c r="R21">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>607.22471247129806</v>
+      </c>
+      <c r="C22">
+        <v>458.6977664054121</v>
+      </c>
+      <c r="D22">
+        <v>374.15323841252098</v>
+      </c>
+      <c r="E22">
+        <v>84.544527992891062</v>
+      </c>
+      <c r="F22">
+        <v>1529.36</v>
+      </c>
+      <c r="G22">
+        <v>495.0772350494899</v>
+      </c>
+      <c r="H22">
+        <v>185.75158662500331</v>
+      </c>
+      <c r="I22">
+        <v>2.4928926405826588</v>
+      </c>
+      <c r="J22">
+        <v>426</v>
+      </c>
+      <c r="K22">
+        <v>1497</v>
+      </c>
+      <c r="L22">
+        <v>2515</v>
+      </c>
+      <c r="M22">
+        <v>26.440407369867899</v>
+      </c>
+      <c r="N22">
+        <v>8.6508342933375388</v>
+      </c>
+      <c r="O22">
+        <v>1.6515728329541159</v>
+      </c>
+      <c r="P22">
+        <v>146.52876091864891</v>
+      </c>
+      <c r="Q22">
+        <v>185.75158662500331</v>
+      </c>
+      <c r="R22">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>703.45479136938843</v>
+      </c>
+      <c r="C23">
+        <v>522.32944659392979</v>
+      </c>
+      <c r="D23">
+        <v>465.01600793598351</v>
+      </c>
+      <c r="E23">
+        <v>57.313438657946342</v>
+      </c>
+      <c r="F23">
+        <v>2038.08</v>
+      </c>
+      <c r="G23">
+        <v>603.76109667515357</v>
+      </c>
+      <c r="H23">
+        <v>5137.4674488330493</v>
+      </c>
+      <c r="I23">
+        <v>1.319025811862556</v>
+      </c>
+      <c r="J23">
+        <v>5524</v>
+      </c>
+      <c r="K23">
+        <v>20486</v>
+      </c>
+      <c r="L23">
+        <v>36636</v>
+      </c>
+      <c r="M23">
+        <v>730.87318115856033</v>
+      </c>
+      <c r="N23">
+        <v>676.30061322462279</v>
+      </c>
+      <c r="O23">
+        <v>2.4958849579561502</v>
+      </c>
+      <c r="P23">
+        <v>3660.7468838766222</v>
+      </c>
+      <c r="Q23">
+        <v>5137.4674488330493</v>
+      </c>
+      <c r="R23">
+        <v>36636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="1:18" ht="100" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>246.94694615593289</v>
+      </c>
+      <c r="C31">
+        <v>196.02583380202921</v>
+      </c>
+      <c r="D31">
+        <v>125.2194880356319</v>
+      </c>
+      <c r="E31">
+        <v>70.806345766397314</v>
+      </c>
+      <c r="F31">
+        <v>450.5</v>
+      </c>
+      <c r="G31">
+        <v>169.7285673556764</v>
+      </c>
+      <c r="H31">
+        <v>1.098581833066419</v>
+      </c>
+      <c r="I31">
+        <v>0.82908471385412064</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>12</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>4.9074608832597733E-3</v>
+      </c>
+      <c r="N31">
+        <v>1.2644168455153699E-3</v>
+      </c>
+      <c r="O31">
+        <v>1.056943667004816</v>
+      </c>
+      <c r="P31">
+        <v>3.0617122654803101E-2</v>
+      </c>
+      <c r="Q31">
+        <v>1.098581833066419</v>
+      </c>
+      <c r="R31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>362.29771688266823</v>
+      </c>
+      <c r="C32">
+        <v>298.20049184746188</v>
+      </c>
+      <c r="D32">
+        <v>169.75463441316529</v>
+      </c>
+      <c r="E32">
+        <v>128.44585743429661</v>
+      </c>
+      <c r="F32">
+        <v>716.45</v>
+      </c>
+      <c r="G32">
+        <v>213.66791062140831</v>
+      </c>
+      <c r="H32">
+        <v>2.676796708023176</v>
+      </c>
+      <c r="I32">
+        <v>2.0751057975634382</v>
+      </c>
+      <c r="J32">
+        <v>56</v>
+      </c>
+      <c r="K32">
+        <v>189</v>
+      </c>
+      <c r="L32">
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>0.38370749773457652</v>
+      </c>
+      <c r="N32">
+        <v>5.3530803415924311E-3</v>
+      </c>
+      <c r="O32">
+        <v>1.112720375065692</v>
+      </c>
+      <c r="P32">
+        <v>0.99134988489095122</v>
+      </c>
+      <c r="Q32">
+        <v>2.676796708023176</v>
+      </c>
+      <c r="R32">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>386.25795359624601</v>
+      </c>
+      <c r="C33">
+        <v>282.62310981202512</v>
+      </c>
+      <c r="D33">
+        <v>282.62310981202512</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1161.07</v>
+      </c>
+      <c r="G33">
+        <v>345.47879910796718</v>
+      </c>
+      <c r="H33">
+        <v>49.351861500064842</v>
+      </c>
+      <c r="I33">
+        <v>4.2502866637165093</v>
+      </c>
+      <c r="J33">
+        <v>570</v>
+      </c>
+      <c r="K33">
+        <v>1554</v>
+      </c>
+      <c r="L33">
+        <v>44</v>
+      </c>
+      <c r="M33">
+        <v>15.27888261037879</v>
+      </c>
+      <c r="N33">
+        <v>1.045766958151944</v>
+      </c>
+      <c r="O33">
+        <v>1.286935333977453</v>
+      </c>
+      <c r="P33">
+        <v>29.70672355254646</v>
+      </c>
+      <c r="Q33">
+        <v>49.351861500064842</v>
+      </c>
+      <c r="R33">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>604.38682705994279</v>
+      </c>
+      <c r="C34">
+        <v>455.52253253708949</v>
+      </c>
+      <c r="D34">
+        <v>376.77801245412729</v>
+      </c>
+      <c r="E34">
+        <v>78.744520082962254</v>
+      </c>
+      <c r="F34">
+        <v>1557.34</v>
+      </c>
+      <c r="G34">
+        <v>496.21935039205141</v>
+      </c>
+      <c r="H34">
+        <v>119.1289231250994</v>
+      </c>
+      <c r="I34">
+        <v>2.0350501048265</v>
+      </c>
+      <c r="J34">
+        <v>694</v>
+      </c>
+      <c r="K34">
+        <v>2318</v>
+      </c>
+      <c r="L34">
+        <v>72</v>
+      </c>
+      <c r="M34">
+        <v>30.581810344359841</v>
+      </c>
+      <c r="N34">
+        <v>1.2326257111271841</v>
+      </c>
+      <c r="O34">
+        <v>1.599003166076727</v>
+      </c>
+      <c r="P34">
+        <v>80.226455353200436</v>
+      </c>
+      <c r="Q34">
+        <v>119.1289231250994</v>
+      </c>
+      <c r="R34">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>697.63255826181228</v>
+      </c>
+      <c r="C35">
+        <v>529.49964047206322</v>
+      </c>
+      <c r="D35">
+        <v>443.7245677458439</v>
+      </c>
+      <c r="E35">
+        <v>85.775072726219321</v>
+      </c>
+      <c r="F35">
+        <v>1956.7</v>
+      </c>
+      <c r="G35">
+        <v>560.44297986796255</v>
+      </c>
+      <c r="H35">
+        <v>4943.1268355419161</v>
+      </c>
+      <c r="I35">
+        <v>0.49546385478081262</v>
+      </c>
+      <c r="J35">
+        <v>9958</v>
+      </c>
+      <c r="K35">
+        <v>37194</v>
+      </c>
+      <c r="L35">
+        <v>387</v>
+      </c>
+      <c r="M35">
+        <v>1341.0893134098731</v>
+      </c>
+      <c r="N35">
+        <v>78.789150466560386</v>
+      </c>
+      <c r="O35">
+        <v>2.3437465829774742</v>
+      </c>
+      <c r="P35">
+        <v>3372.931569854612</v>
+      </c>
+      <c r="Q35">
+        <v>4943.1268355419161</v>
+      </c>
+      <c r="R35">
+        <v>37576</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="15"/>
+    </row>
+    <row r="41" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+    </row>
+    <row r="42" spans="1:18" ht="100" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>246.94694615593289</v>
+      </c>
+      <c r="C43">
+        <v>196.02583380202921</v>
+      </c>
+      <c r="D43">
+        <v>125.2194880356319</v>
+      </c>
+      <c r="E43">
+        <v>70.806345766397314</v>
+      </c>
+      <c r="F43">
+        <v>450.5</v>
+      </c>
+      <c r="G43">
+        <v>169.7285673556764</v>
+      </c>
+      <c r="H43">
+        <v>1.0982599999988449</v>
+      </c>
+      <c r="I43">
+        <v>0.82908471385412064</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>11</v>
+      </c>
+      <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>4.0819590212777257E-3</v>
+      </c>
+      <c r="N43">
+        <v>1.376167056150734E-3</v>
+      </c>
+      <c r="O43">
+        <v>1.058598040952347</v>
+      </c>
+      <c r="P43">
+        <v>2.88498749723658E-2</v>
+      </c>
+      <c r="Q43">
+        <v>1.0982599999988449</v>
+      </c>
+      <c r="R43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>362.29771688266828</v>
+      </c>
+      <c r="C44">
+        <v>298.20049184746188</v>
+      </c>
+      <c r="D44">
+        <v>169.75463441316529</v>
+      </c>
+      <c r="E44">
+        <v>128.44585743429661</v>
+      </c>
+      <c r="F44">
+        <v>716.46</v>
+      </c>
+      <c r="G44">
+        <v>213.65791062140829</v>
+      </c>
+      <c r="H44">
+        <v>2.3748866660753269</v>
+      </c>
+      <c r="I44">
+        <v>2.0751057975634688</v>
+      </c>
+      <c r="J44">
+        <v>32</v>
+      </c>
+      <c r="K44">
+        <v>120</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>0.27916412241756922</v>
+      </c>
+      <c r="N44">
+        <v>4.0272510377690196E-3</v>
+      </c>
+      <c r="O44">
+        <v>1.215865915990435</v>
+      </c>
+      <c r="P44">
+        <v>0.75147796445526183</v>
+      </c>
+      <c r="Q44">
+        <v>2.3748866660753269</v>
+      </c>
+      <c r="R44">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>386.25795359624578</v>
+      </c>
+      <c r="C45">
+        <v>282.62310981202512</v>
+      </c>
+      <c r="D45">
+        <v>282.62310981202512</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1161.07</v>
+      </c>
+      <c r="G45">
+        <v>345.47879910796718</v>
+      </c>
+      <c r="H45">
+        <v>44.650022207992151</v>
+      </c>
+      <c r="I45">
+        <v>4.2502866637164818</v>
+      </c>
+      <c r="J45">
+        <v>490</v>
+      </c>
+      <c r="K45">
+        <v>1325</v>
+      </c>
+      <c r="L45">
+        <v>48</v>
+      </c>
+      <c r="M45">
+        <v>11.985379397519861</v>
+      </c>
+      <c r="N45">
+        <v>1.043692621169612</v>
+      </c>
+      <c r="O45">
+        <v>1.324275374994613</v>
+      </c>
+      <c r="P45">
+        <v>25.666095021530051</v>
+      </c>
+      <c r="Q45">
+        <v>44.650022207992151</v>
+      </c>
+      <c r="R45">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>604.90695796760588</v>
+      </c>
+      <c r="C46">
+        <v>470.81098005195707</v>
+      </c>
+      <c r="D46">
+        <v>361.31566036240991</v>
+      </c>
+      <c r="E46">
+        <v>109.4953196895473</v>
+      </c>
+      <c r="F46">
+        <v>1490.62</v>
+      </c>
+      <c r="G46">
+        <v>446.9833470817407</v>
+      </c>
+      <c r="H46">
+        <v>417.41232737491367</v>
+      </c>
+      <c r="I46">
+        <v>2.1192855358080598</v>
+      </c>
+      <c r="J46">
+        <v>2712</v>
+      </c>
+      <c r="K46">
+        <v>10105</v>
+      </c>
+      <c r="L46">
+        <v>258</v>
+      </c>
+      <c r="M46">
+        <v>94.820470260921866</v>
+      </c>
+      <c r="N46">
+        <v>2.460386878461577</v>
+      </c>
+      <c r="O46">
+        <v>2.0735275839688261</v>
+      </c>
+      <c r="P46">
+        <v>285.02825765078887</v>
+      </c>
+      <c r="Q46">
+        <v>417.41232737491367</v>
+      </c>
+      <c r="R46">
+        <v>10348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>692.78552948239258</v>
+      </c>
+      <c r="C47">
+        <v>528.93240644652155</v>
+      </c>
+      <c r="D47">
+        <v>443.15733372030218</v>
+      </c>
+      <c r="E47">
+        <v>85.775072726219321</v>
+      </c>
+      <c r="F47">
+        <v>1956.7</v>
+      </c>
+      <c r="G47">
+        <v>546.17699735503561</v>
+      </c>
+      <c r="H47">
+        <v>3631.1849544160068</v>
+      </c>
+      <c r="I47">
+        <v>-0.2007131435162387</v>
+      </c>
+      <c r="J47">
+        <v>6834</v>
+      </c>
+      <c r="K47">
+        <v>26205</v>
+      </c>
+      <c r="L47">
+        <v>141</v>
+      </c>
+      <c r="M47">
+        <v>844.92701049952302</v>
+      </c>
+      <c r="N47">
+        <v>77.11953763035126</v>
+      </c>
+      <c r="O47">
+        <v>2.1956112079787999</v>
+      </c>
+      <c r="P47">
+        <v>2292.8593546497868</v>
+      </c>
+      <c r="Q47">
+        <v>3631.1849544160068</v>
+      </c>
+      <c r="R47">
+        <v>26301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="15"/>
+    </row>
+    <row r="55" spans="5:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E56" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E57" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="18">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E58" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E59" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E60" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E61" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E62" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E63" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A41:R41"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/New_codes/Results/results_big_instances.xlsx
+++ b/New_codes/Results/results_big_instances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/kaisar_usc_edu/Documents/CVRP/Codes/New_codes/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="347" documentId="11_9DE5D3BDE86AA64C120A303EE22A3A6EAED19A86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78647F7A-CBA5-994C-A44D-714DE2ABBDE3}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="11_9DE5D3BDE86AA64C120A303EE22A3A6EAED19A86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A10D6526-3394-0043-8F2F-C5F50027C781}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="500" windowWidth="38400" windowHeight="19720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>Nodes</t>
   </si>
@@ -209,15 +209,34 @@
   </si>
   <si>
     <t>Total execution time (sec.)</t>
+  </si>
+  <si>
+    <t>30 nodes</t>
+  </si>
+  <si>
+    <t>CG DP</t>
+  </si>
+  <si>
+    <t>1st it.</t>
+  </si>
+  <si>
+    <t>RG DP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -330,36 +349,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -368,31 +387,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -404,10 +423,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AF55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="136" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="136" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2557,21 +2585,42 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="21"/>
     </row>
-    <row r="38" spans="5:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="L37" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="M37" s="28"/>
+    </row>
+    <row r="38" spans="5:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="5:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="L38" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" ht="17" x14ac:dyDescent="0.2">
       <c r="E39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="40" spans="5:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="K39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="13">
+        <v>600</v>
+      </c>
+      <c r="M39" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" ht="17" x14ac:dyDescent="0.2">
       <c r="E40" s="3" t="s">
         <v>44</v>
       </c>
@@ -2579,7 +2628,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="5:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:13" ht="17" x14ac:dyDescent="0.2">
       <c r="E41" s="3" t="s">
         <v>45</v>
       </c>
@@ -2587,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:13" ht="17" x14ac:dyDescent="0.2">
       <c r="E42" s="3" t="s">
         <v>46</v>
       </c>
@@ -2595,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="5:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:13" ht="17" x14ac:dyDescent="0.2">
       <c r="E43" s="3" t="s">
         <v>47</v>
       </c>
@@ -2603,7 +2652,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="44" spans="5:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:13" ht="17" x14ac:dyDescent="0.2">
       <c r="E44" s="3" t="s">
         <v>48</v>
       </c>
@@ -2611,7 +2660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="5:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:13" ht="34" x14ac:dyDescent="0.2">
       <c r="E45" s="3" t="s">
         <v>49</v>
       </c>
@@ -2619,7 +2668,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="5:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:13" ht="34" x14ac:dyDescent="0.2">
       <c r="E46" s="3" t="s">
         <v>51</v>
       </c>
@@ -2768,11 +2817,12 @@
       <c r="R55" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="L37:M37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/New_codes/Results/results_big_instances.xlsx
+++ b/New_codes/Results/results_big_instances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/kaisar_usc_edu/Documents/CVRP/Codes/New_codes/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="356" documentId="11_9DE5D3BDE86AA64C120A303EE22A3A6EAED19A86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A10D6526-3394-0043-8F2F-C5F50027C781}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="11_9DE5D3BDE86AA64C120A303EE22A3A6EAED19A86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AB4BDD8-C93C-8C4A-93E4-2ACAC40EEB28}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="500" windowWidth="38400" windowHeight="19720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="500" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -746,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1019,6 +1019,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1150,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AF55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="136" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/New_codes/Results/results_big_instances.xlsx
+++ b/New_codes/Results/results_big_instances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/kaisar_usc_edu/Documents/CVRP/Codes/New_codes/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="11_9DE5D3BDE86AA64C120A303EE22A3A6EAED19A86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AB4BDD8-C93C-8C4A-93E4-2ACAC40EEB28}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="11_9DE5D3BDE86AA64C120A303EE22A3A6EAED19A86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB6230CB-1EEF-B14B-BA25-8CA0785CE27D}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="500" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="580" windowWidth="38400" windowHeight="19720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>Nodes</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Total RG DP time</t>
-  </si>
-  <si>
-    <t>TSP cache time</t>
   </si>
   <si>
     <t>Total LP relaxation time</t>
@@ -746,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1039,10 +1036,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1050,10 +1047,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1061,10 +1058,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1072,10 +1069,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1083,10 +1080,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,10 +1091,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1105,10 +1102,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1116,10 +1113,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1127,10 +1124,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1138,10 +1135,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1151,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AF55"/>
+  <dimension ref="A2:AE55"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,22 +1166,21 @@
     <col min="10" max="11" width="11" style="13" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="13" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="8.83203125" style="13"/>
-    <col min="23" max="23" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.83203125" style="13"/>
+    <col min="14" max="14" width="11.33203125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="8.83203125" style="13"/>
+    <col min="22" max="22" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1201,9 +1197,8 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1212,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -1249,14 +1244,11 @@
       <c r="O3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="P3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>5</v>
       </c>
@@ -1297,22 +1289,19 @@
         <v>2.587461844086647E-3</v>
       </c>
       <c r="N4" s="22">
-        <v>1.0586116253398361</v>
+        <v>4.6549041755497463E-2</v>
       </c>
       <c r="O4" s="22">
-        <v>4.6549041755497463E-2</v>
+        <v>1.154007041826844</v>
       </c>
       <c r="P4" s="22">
-        <v>1.154007041826844</v>
-      </c>
-      <c r="Q4" s="22">
         <v>16</v>
       </c>
-      <c r="R4" s="14">
+      <c r="Q4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>10</v>
       </c>
@@ -1353,22 +1342,19 @@
         <v>5.0291249062865973E-2</v>
       </c>
       <c r="N5" s="22">
-        <v>1.0543728340417149</v>
+        <v>1.0188048705458641</v>
       </c>
       <c r="O5" s="22">
-        <v>1.0188048705458641</v>
+        <v>3.0709427497349679</v>
       </c>
       <c r="P5" s="22">
-        <v>3.0709427497349679</v>
-      </c>
-      <c r="Q5" s="22">
         <v>64</v>
       </c>
-      <c r="R5" s="14">
+      <c r="Q5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
         <v>15</v>
       </c>
@@ -1409,22 +1395,19 @@
         <v>1.2846273710019891</v>
       </c>
       <c r="N6" s="22">
-        <v>1.054200292099267</v>
+        <v>5.3324113371781996</v>
       </c>
       <c r="O6" s="22">
-        <v>5.3324113371781996</v>
+        <v>17.26016554096714</v>
       </c>
       <c r="P6" s="22">
-        <v>17.26016554096714</v>
-      </c>
-      <c r="Q6" s="22">
         <v>65</v>
       </c>
-      <c r="R6" s="14">
+      <c r="Q6" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>20</v>
       </c>
@@ -1465,22 +1448,19 @@
         <v>3.1008382472209628</v>
       </c>
       <c r="N7" s="22">
-        <v>1.1909511247649791</v>
+        <v>52.500067836605012</v>
       </c>
       <c r="O7" s="22">
-        <v>52.500067836605012</v>
+        <v>141.1674488331191</v>
       </c>
       <c r="P7" s="22">
-        <v>141.1674488331191</v>
-      </c>
-      <c r="Q7" s="22">
         <v>425</v>
       </c>
-      <c r="R7" s="14">
+      <c r="Q7" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>25</v>
       </c>
@@ -1521,22 +1501,19 @@
         <v>86.182580017950386</v>
       </c>
       <c r="N8" s="22">
-        <v>1.15177791705355</v>
+        <v>177.41368708014491</v>
       </c>
       <c r="O8" s="22">
-        <v>177.41368708014491</v>
+        <v>833.50728633394465</v>
       </c>
       <c r="P8" s="22">
-        <v>833.50728633394465</v>
-      </c>
-      <c r="Q8" s="22">
         <v>389</v>
       </c>
-      <c r="R8" s="14">
+      <c r="Q8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1551,82 +1528,81 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="15"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="V10" s="14">
+      <c r="O9" s="16"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="U10" s="14">
         <v>5</v>
       </c>
+      <c r="V10" s="11">
+        <v>246.94694615593289</v>
+      </c>
       <c r="W10" s="11">
-        <v>246.94694615593289</v>
+        <v>196.02583380202921</v>
       </c>
       <c r="X10" s="11">
-        <v>196.02583380202921</v>
+        <v>125.2194880356319</v>
       </c>
       <c r="Y10" s="11">
-        <v>125.2194880356319</v>
+        <v>70.806345766397314</v>
       </c>
       <c r="Z10" s="11">
-        <v>70.806345766397314</v>
+        <v>450.5</v>
       </c>
       <c r="AA10" s="11">
-        <v>450.5</v>
-      </c>
-      <c r="AB10" s="11">
         <v>169.7285673556764</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="V11" s="14">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="U11" s="14">
         <v>10</v>
       </c>
+      <c r="V11" s="11">
+        <v>362.29771688266823</v>
+      </c>
       <c r="W11" s="11">
-        <v>362.29771688266823</v>
+        <v>298.20049184746199</v>
       </c>
       <c r="X11" s="11">
-        <v>298.20049184746199</v>
+        <v>169.75463441316541</v>
       </c>
       <c r="Y11" s="11">
-        <v>169.75463441316541</v>
+        <v>128.44585743429661</v>
       </c>
       <c r="Z11" s="11">
-        <v>128.44585743429661</v>
+        <v>716.45</v>
       </c>
       <c r="AA11" s="11">
-        <v>716.45</v>
-      </c>
-      <c r="AB11" s="11">
         <v>213.66791062140831</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="V12" s="14">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="U12" s="14">
         <v>15</v>
       </c>
+      <c r="V12" s="11">
+        <v>385.36764048957099</v>
+      </c>
       <c r="W12" s="11">
-        <v>385.36764048957099</v>
+        <v>282.57107653802359</v>
       </c>
       <c r="X12" s="11">
         <v>282.57107653802359</v>
       </c>
       <c r="Y12" s="11">
-        <v>282.57107653802359</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="11">
-        <v>0</v>
+        <v>1161.0899999999999</v>
       </c>
       <c r="AA12" s="11">
-        <v>1161.0899999999999</v>
-      </c>
-      <c r="AB12" s="11">
         <v>342.66453299905629</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1643,30 +1619,29 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="V13" s="14">
+      <c r="U13" s="14">
         <v>20</v>
       </c>
+      <c r="V13" s="11">
+        <v>604.19114000661637</v>
+      </c>
       <c r="W13" s="11">
-        <v>604.19114000661637</v>
+        <v>456.65214512227078</v>
       </c>
       <c r="X13" s="11">
-        <v>456.65214512227078</v>
+        <v>377.90762503930853</v>
       </c>
       <c r="Y13" s="11">
-        <v>377.90762503930853</v>
+        <v>78.744520082962254</v>
       </c>
       <c r="Z13" s="11">
-        <v>78.744520082962254</v>
+        <v>1557.35</v>
       </c>
       <c r="AA13" s="11">
-        <v>1557.35</v>
-      </c>
-      <c r="AB13" s="11">
         <v>491.79168493035922</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>4</v>
@@ -1712,35 +1687,32 @@
       <c r="O14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V14" s="14">
+      <c r="P14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="14">
         <v>25</v>
       </c>
+      <c r="V14" s="11">
+        <v>687.7808421512417</v>
+      </c>
       <c r="W14" s="11">
-        <v>687.7808421512417</v>
+        <v>520.03689647315844</v>
       </c>
       <c r="X14" s="11">
-        <v>520.03689647315844</v>
+        <v>462.7234578152121</v>
       </c>
       <c r="Y14" s="11">
-        <v>462.7234578152121</v>
+        <v>57.313438657946342</v>
       </c>
       <c r="Z14" s="11">
-        <v>57.313438657946342</v>
+        <v>2038.08</v>
       </c>
       <c r="AA14" s="11">
-        <v>2038.08</v>
-      </c>
-      <c r="AB14" s="11">
         <v>559.15643301723458</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>5</v>
       </c>
@@ -1781,22 +1753,19 @@
         <v>2.3714988492429261E-3</v>
       </c>
       <c r="N15" s="22">
-        <v>1.019988958258182</v>
+        <v>5.1714584231376648E-2</v>
       </c>
       <c r="O15" s="22">
-        <v>5.1714584231376648E-2</v>
+        <v>1.110765959136188</v>
       </c>
       <c r="P15" s="22">
-        <v>1.110765959136188</v>
-      </c>
-      <c r="Q15" s="22">
         <v>17</v>
       </c>
-      <c r="R15" s="14">
+      <c r="Q15" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>10</v>
       </c>
@@ -1837,22 +1806,19 @@
         <v>1.4699833933264021E-2</v>
       </c>
       <c r="N16" s="22">
-        <v>1.0496964999474589</v>
+        <v>0.75680195586755872</v>
       </c>
       <c r="O16" s="22">
-        <v>0.75680195586755872</v>
+        <v>2.5815619160421188</v>
       </c>
       <c r="P16" s="22">
-        <v>2.5815619160421188</v>
-      </c>
-      <c r="Q16" s="22">
         <v>94</v>
       </c>
-      <c r="R16" s="14">
+      <c r="Q16" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -1893,22 +1859,22 @@
         <v>1.096351083368063</v>
       </c>
       <c r="N17" s="22">
-        <v>1.06644512526691</v>
+        <v>2.9339197068475191</v>
       </c>
       <c r="O17" s="22">
-        <v>2.9339197068475191</v>
+        <v>12.728233790956439</v>
       </c>
       <c r="P17" s="22">
-        <v>12.728233790956439</v>
-      </c>
-      <c r="Q17" s="22">
         <v>55</v>
       </c>
-      <c r="R17" s="14">
+      <c r="Q17" s="14">
         <v>2</v>
       </c>
+      <c r="U17" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="V17" s="2" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>53</v>
@@ -1922,18 +1888,15 @@
       <c r="Z17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="AA17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB17" s="13"/>
       <c r="AC17" s="13"/>
       <c r="AD17" s="13"/>
       <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-    </row>
-    <row r="18" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>20</v>
       </c>
@@ -1974,47 +1937,44 @@
         <v>1.8803325425833459</v>
       </c>
       <c r="N18" s="22">
-        <v>1.113680749665946</v>
+        <v>34.813152911607183</v>
       </c>
       <c r="O18" s="22">
-        <v>34.813152911607183</v>
+        <v>115.73285404080529</v>
       </c>
       <c r="P18" s="22">
-        <v>115.73285404080529</v>
-      </c>
-      <c r="Q18" s="22">
         <v>406</v>
       </c>
-      <c r="R18" s="14">
+      <c r="Q18" s="14">
         <v>2</v>
       </c>
-      <c r="V18" s="14">
+      <c r="U18" s="14">
         <v>5</v>
       </c>
+      <c r="V18" s="12">
+        <v>0.82908471385412064</v>
+      </c>
       <c r="W18" s="12">
-        <v>0.82908471385412064</v>
+        <v>7.5094988569617271E-3</v>
       </c>
       <c r="X18" s="12">
-        <v>7.5094988569617271E-3</v>
+        <v>2.587461844086647E-3</v>
       </c>
       <c r="Y18" s="12">
-        <v>2.587461844086647E-3</v>
+        <v>4.6549041755497463E-2</v>
       </c>
       <c r="Z18" s="12">
-        <v>4.6549041755497463E-2</v>
-      </c>
-      <c r="AA18" s="12">
         <v>1.154007041826844</v>
       </c>
-      <c r="AB18" s="11">
+      <c r="AA18" s="11">
         <v>16</v>
       </c>
+      <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-    </row>
-    <row r="19" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>25</v>
       </c>
@@ -2055,47 +2015,44 @@
         <v>67.828159122727811</v>
       </c>
       <c r="N19" s="22">
-        <v>1.1717210407368841</v>
+        <v>147.136997169815</v>
       </c>
       <c r="O19" s="22">
-        <v>147.136997169815</v>
+        <v>922.2184890829958</v>
       </c>
       <c r="P19" s="22">
-        <v>922.2184890829958</v>
-      </c>
-      <c r="Q19" s="22">
         <v>475</v>
       </c>
-      <c r="R19" s="14">
+      <c r="Q19" s="14">
         <v>2</v>
       </c>
-      <c r="V19" s="14">
+      <c r="U19" s="14">
         <v>10</v>
       </c>
+      <c r="V19" s="12">
+        <v>2.0751057975634382</v>
+      </c>
       <c r="W19" s="12">
-        <v>2.0751057975634382</v>
+        <v>0.37652041204273701</v>
       </c>
       <c r="X19" s="12">
-        <v>0.37652041204273701</v>
+        <v>5.0291249062865973E-2</v>
       </c>
       <c r="Y19" s="12">
-        <v>5.0291249062865973E-2</v>
+        <v>1.0188048705458641</v>
       </c>
       <c r="Z19" s="12">
-        <v>1.0188048705458641</v>
-      </c>
-      <c r="AA19" s="12">
         <v>3.0709427497349679</v>
       </c>
-      <c r="AB19" s="11">
+      <c r="AA19" s="11">
         <v>64</v>
       </c>
+      <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
       <c r="AD19" s="13"/>
       <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2112,31 +2069,30 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="19"/>
-      <c r="V20" s="14">
+      <c r="Q20" s="19"/>
+      <c r="U20" s="14">
         <v>15</v>
       </c>
+      <c r="V20" s="12">
+        <v>4.2299220467848304</v>
+      </c>
       <c r="W20" s="12">
-        <v>4.2299220467848304</v>
+        <v>7.9779803762212396</v>
       </c>
       <c r="X20" s="12">
-        <v>7.9779803762212396</v>
+        <v>1.2846273710019891</v>
       </c>
       <c r="Y20" s="12">
-        <v>1.2846273710019891</v>
+        <v>5.3324113371781996</v>
       </c>
       <c r="Z20" s="12">
-        <v>5.3324113371781996</v>
-      </c>
-      <c r="AA20" s="12">
         <v>17.26016554096714</v>
       </c>
-      <c r="AB20" s="11">
+      <c r="AA20" s="11">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -2153,30 +2109,29 @@
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="V21" s="14">
+      <c r="U21" s="14">
         <v>25</v>
       </c>
+      <c r="V21" s="12">
+        <v>2.5407710819192468</v>
+      </c>
       <c r="W21" s="12">
-        <v>2.5407710819192468</v>
+        <v>530.88526795245707</v>
       </c>
       <c r="X21" s="12">
-        <v>530.88526795245707</v>
+        <v>86.182580017950386</v>
       </c>
       <c r="Y21" s="12">
-        <v>86.182580017950386</v>
+        <v>177.41368708014491</v>
       </c>
       <c r="Z21" s="12">
-        <v>177.41368708014491</v>
-      </c>
-      <c r="AA21" s="12">
         <v>833.50728633394465</v>
       </c>
-      <c r="AB21" s="11">
+      <c r="AA21" s="11">
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -2193,9 +2148,8 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -2212,11 +2166,10 @@
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-    </row>
-    <row r="24" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2233,9 +2186,8 @@
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-    </row>
-    <row r="25" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>4</v>
@@ -2281,14 +2233,11 @@
       <c r="O25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="P25" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>5</v>
       </c>
@@ -2329,22 +2278,19 @@
         <v>1.3165413402020929E-3</v>
       </c>
       <c r="N26" s="22">
-        <v>1.0360138746909799</v>
+        <v>4.0159834083169699E-2</v>
       </c>
       <c r="O26" s="22">
-        <v>4.0159834083169699E-2</v>
+        <v>1.111591042019427</v>
       </c>
       <c r="P26" s="22">
-        <v>1.111591042019427</v>
-      </c>
-      <c r="Q26" s="22">
         <v>17</v>
       </c>
-      <c r="R26" s="14">
+      <c r="Q26" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:32" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>10</v>
       </c>
@@ -2385,22 +2331,19 @@
         <v>1.9180707633495331E-2</v>
       </c>
       <c r="N27" s="22">
-        <v>1.0318756252527239</v>
+        <v>0.64494450064375997</v>
       </c>
       <c r="O27" s="22">
-        <v>0.64494450064375997</v>
+        <v>2.4074882501736279</v>
       </c>
       <c r="P27" s="22">
-        <v>2.4074882501736279</v>
-      </c>
-      <c r="Q27" s="22">
         <v>62</v>
       </c>
-      <c r="R27" s="14">
+      <c r="Q27" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:32" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>15</v>
       </c>
@@ -2441,22 +2384,19 @@
         <v>1.1306943325325849</v>
       </c>
       <c r="N28" s="22">
-        <v>1.0916589577682321</v>
+        <v>3.8535020020790398</v>
       </c>
       <c r="O28" s="22">
-        <v>3.8535020020790398</v>
+        <v>15.96156295808032</v>
       </c>
       <c r="P28" s="22">
-        <v>15.96156295808032</v>
-      </c>
-      <c r="Q28" s="22">
         <v>61</v>
       </c>
-      <c r="R28" s="14">
+      <c r="Q28" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>20</v>
       </c>
@@ -2497,22 +2437,19 @@
         <v>1.216076167300344</v>
       </c>
       <c r="N29" s="22">
-        <v>1.173640207853168</v>
+        <v>36.938246741425253</v>
       </c>
       <c r="O29" s="22">
-        <v>36.938246741425253</v>
+        <v>103.00789191713559</v>
       </c>
       <c r="P29" s="22">
-        <v>103.00789191713559</v>
-      </c>
-      <c r="Q29" s="22">
         <v>367</v>
       </c>
-      <c r="R29" s="14">
+      <c r="Q29" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:32" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2553,22 +2490,19 @@
         <v>70.884700333233923</v>
       </c>
       <c r="N30" s="22">
-        <v>1.208974542096257</v>
+        <v>117.13085950119419</v>
       </c>
       <c r="O30" s="22">
-        <v>117.13085950119419</v>
+        <v>728.32331666722894</v>
       </c>
       <c r="P30" s="22">
-        <v>728.32331666722894</v>
-      </c>
-      <c r="Q30" s="22">
         <v>284</v>
       </c>
-      <c r="R30" s="14">
+      <c r="Q30" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2585,36 +2519,35 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="21"/>
+      <c r="Q31" s="21"/>
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.2">
       <c r="L37" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M37" s="28"/>
     </row>
     <row r="38" spans="5:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" s="8"/>
       <c r="L38" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="5:13" ht="17" x14ac:dyDescent="0.2">
       <c r="E39" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39" s="3">
         <v>0.3</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L39" s="13">
         <v>600</v>
@@ -2625,7 +2558,7 @@
     </row>
     <row r="40" spans="5:13" ht="17" x14ac:dyDescent="0.2">
       <c r="E40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="3">
         <v>1.2</v>
@@ -2633,7 +2566,7 @@
     </row>
     <row r="41" spans="5:13" ht="17" x14ac:dyDescent="0.2">
       <c r="E41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
@@ -2641,7 +2574,7 @@
     </row>
     <row r="42" spans="5:13" ht="17" x14ac:dyDescent="0.2">
       <c r="E42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -2649,7 +2582,7 @@
     </row>
     <row r="43" spans="5:13" ht="17" x14ac:dyDescent="0.2">
       <c r="E43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" s="3">
         <v>3.5</v>
@@ -2657,7 +2590,7 @@
     </row>
     <row r="44" spans="5:13" ht="17" x14ac:dyDescent="0.2">
       <c r="E44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44" s="3">
         <v>10</v>
@@ -2665,21 +2598,21 @@
     </row>
     <row r="45" spans="5:13" ht="34" x14ac:dyDescent="0.2">
       <c r="E45" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="5:13" ht="34" x14ac:dyDescent="0.2">
       <c r="E46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -2697,9 +2630,8 @@
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -2717,9 +2649,8 @@
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -2737,9 +2668,8 @@
       <c r="O51" s="21"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -2757,9 +2687,8 @@
       <c r="O52" s="21"/>
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -2777,9 +2706,8 @@
       <c r="O53" s="21"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -2797,9 +2725,8 @@
       <c r="O54" s="21"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -2817,14 +2744,13 @@
       <c r="O55" s="21"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="A24:P24"/>
     <mergeCell ref="L37:M37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
